--- a/中间数据集/表1与表2拼接后的数据集.xlsx
+++ b/中间数据集/表1与表2拼接后的数据集.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V68"/>
+  <dimension ref="A1:U68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,87 +461,82 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>文物采样点</t>
+          <t>二氧化硅(SiO2)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>二氧化硅(SiO2)</t>
+          <t>氧化钠(Na2O)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>氧化钠(Na2O)</t>
+          <t>氧化钾(K2O)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>氧化钾(K2O)</t>
+          <t>氧化钙(CaO)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>氧化钙(CaO)</t>
+          <t>氧化镁(MgO)</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>氧化镁(MgO)</t>
+          <t>氧化铝(Al2O3)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>氧化铝(Al2O3)</t>
+          <t>氧化铁(Fe2O3)</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>氧化铁(Fe2O3)</t>
+          <t>氧化铜(CuO)</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>氧化铜(CuO)</t>
+          <t>氧化铅(PbO)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>氧化铅(PbO)</t>
+          <t>氧化钡(BaO)</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>氧化钡(BaO)</t>
+          <t>五氧化二磷(P2O5)</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>五氧化二磷(P2O5)</t>
+          <t>氧化锶(SrO)</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>氧化锶(SrO)</t>
+          <t>氧化锡(SnO2)</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>氧化锡(SnO2)</t>
+          <t>二氧化硫(SO2)</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>二氧化硫(SO2)</t>
+          <t>采样位置</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Sum</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>风化位置</t>
+          <t>风化具体情况</t>
         </is>
       </c>
     </row>
@@ -569,57 +564,54 @@
           <t>无风化</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="F2" t="n">
+        <v>69.33</v>
       </c>
       <c r="G2" t="n">
-        <v>69.33</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9.99</v>
       </c>
       <c r="I2" t="n">
-        <v>9.99</v>
+        <v>6.32</v>
       </c>
       <c r="J2" t="n">
-        <v>6.32</v>
+        <v>0.87</v>
       </c>
       <c r="K2" t="n">
-        <v>0.87</v>
+        <v>3.93</v>
       </c>
       <c r="L2" t="n">
-        <v>3.93</v>
+        <v>1.74</v>
       </c>
       <c r="M2" t="n">
-        <v>1.74</v>
+        <v>3.87</v>
       </c>
       <c r="N2" t="n">
-        <v>3.87</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
         <v>0.39</v>
       </c>
-      <c r="U2" t="n">
-        <v>97.61</v>
-      </c>
-      <c r="V2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>无风化</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -645,57 +637,54 @@
           <t>风化</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="F3" t="n">
+        <v>36.28</v>
       </c>
       <c r="G3" t="n">
-        <v>36.28</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="I3" t="n">
-        <v>1.05</v>
+        <v>2.34</v>
       </c>
       <c r="J3" t="n">
-        <v>2.34</v>
+        <v>1.18</v>
       </c>
       <c r="K3" t="n">
-        <v>1.18</v>
+        <v>5.73</v>
       </c>
       <c r="L3" t="n">
-        <v>5.73</v>
+        <v>1.86</v>
       </c>
       <c r="M3" t="n">
-        <v>1.86</v>
+        <v>0.26</v>
       </c>
       <c r="N3" t="n">
-        <v>0.26</v>
+        <v>47.43</v>
       </c>
       <c r="O3" t="n">
-        <v>47.43</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.57</v>
+        <v>0.19</v>
       </c>
       <c r="R3" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>99.88999999999999</v>
-      </c>
-      <c r="V3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>风化</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -721,43 +710,41 @@
           <t>无风化</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>03部位1</t>
-        </is>
+      <c r="F4" t="n">
+        <v>87.05</v>
       </c>
       <c r="G4" t="n">
-        <v>87.05</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>5.19</v>
       </c>
       <c r="I4" t="n">
-        <v>5.19</v>
+        <v>2.01</v>
       </c>
       <c r="J4" t="n">
-        <v>2.01</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.06</v>
       </c>
       <c r="L4" t="n">
-        <v>4.06</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="N4" t="n">
-        <v>0.78</v>
+        <v>0.25</v>
       </c>
       <c r="O4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -765,15 +752,14 @@
       <c r="S4" t="n">
         <v>0</v>
       </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>100</v>
-      </c>
-      <c r="V4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>部位1</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>无风化</t>
         </is>
       </c>
     </row>
@@ -801,59 +787,56 @@
           <t>无风化</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>03部位2</t>
-        </is>
+      <c r="F5" t="n">
+        <v>61.71</v>
       </c>
       <c r="G5" t="n">
-        <v>61.71</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>12.37</v>
       </c>
       <c r="I5" t="n">
-        <v>12.37</v>
+        <v>5.87</v>
       </c>
       <c r="J5" t="n">
-        <v>5.87</v>
+        <v>1.11</v>
       </c>
       <c r="K5" t="n">
-        <v>1.11</v>
+        <v>5.5</v>
       </c>
       <c r="L5" t="n">
-        <v>5.5</v>
+        <v>2.16</v>
       </c>
       <c r="M5" t="n">
-        <v>2.16</v>
+        <v>5.09</v>
       </c>
       <c r="N5" t="n">
-        <v>5.09</v>
+        <v>1.41</v>
       </c>
       <c r="O5" t="n">
-        <v>1.41</v>
+        <v>2.86</v>
       </c>
       <c r="P5" t="n">
-        <v>2.86</v>
+        <v>0.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>98.88</v>
-      </c>
-      <c r="V5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>部位2</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>无风化</t>
         </is>
       </c>
     </row>
@@ -881,57 +864,54 @@
           <t>无风化</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="F6" t="n">
+        <v>65.88</v>
       </c>
       <c r="G6" t="n">
-        <v>65.88</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>9.67</v>
       </c>
       <c r="I6" t="n">
-        <v>9.67</v>
+        <v>7.12</v>
       </c>
       <c r="J6" t="n">
-        <v>7.12</v>
+        <v>1.56</v>
       </c>
       <c r="K6" t="n">
-        <v>1.56</v>
+        <v>6.44</v>
       </c>
       <c r="L6" t="n">
-        <v>6.44</v>
+        <v>2.06</v>
       </c>
       <c r="M6" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="N6" t="n">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
         <v>0.36</v>
       </c>
-      <c r="U6" t="n">
-        <v>96.06000000000002</v>
-      </c>
-      <c r="V6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>无风化</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -957,57 +937,54 @@
           <t>无风化</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="F7" t="n">
+        <v>61.58</v>
       </c>
       <c r="G7" t="n">
-        <v>61.58</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>10.95</v>
       </c>
       <c r="I7" t="n">
-        <v>10.95</v>
+        <v>7.35</v>
       </c>
       <c r="J7" t="n">
-        <v>7.35</v>
+        <v>1.77</v>
       </c>
       <c r="K7" t="n">
-        <v>1.77</v>
+        <v>7.5</v>
       </c>
       <c r="L7" t="n">
-        <v>7.5</v>
+        <v>2.62</v>
       </c>
       <c r="M7" t="n">
-        <v>2.62</v>
+        <v>3.27</v>
       </c>
       <c r="N7" t="n">
-        <v>3.27</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.06</v>
       </c>
       <c r="R7" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
         <v>0.47</v>
       </c>
-      <c r="U7" t="n">
-        <v>96.50999999999999</v>
-      </c>
-      <c r="V7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>无风化</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1033,59 +1010,56 @@
           <t>无风化</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>06部位1</t>
-        </is>
+      <c r="F8" t="n">
+        <v>67.65000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>67.65000000000001</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>7.37</v>
       </c>
       <c r="I8" t="n">
-        <v>7.37</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="K8" t="n">
-        <v>1.98</v>
+        <v>11.15</v>
       </c>
       <c r="L8" t="n">
-        <v>11.15</v>
+        <v>2.39</v>
       </c>
       <c r="M8" t="n">
-        <v>2.39</v>
+        <v>2.51</v>
       </c>
       <c r="N8" t="n">
-        <v>2.51</v>
+        <v>0.2</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2</v>
+        <v>1.38</v>
       </c>
       <c r="P8" t="n">
-        <v>1.38</v>
+        <v>4.18</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.18</v>
+        <v>0.11</v>
       </c>
       <c r="R8" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>98.92000000000003</v>
-      </c>
-      <c r="V8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>部位1</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>无风化</t>
         </is>
       </c>
     </row>
@@ -1113,59 +1087,56 @@
           <t>无风化</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>06部位2</t>
-        </is>
+      <c r="F9" t="n">
+        <v>59.81</v>
       </c>
       <c r="G9" t="n">
-        <v>59.81</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>7.68</v>
       </c>
       <c r="I9" t="n">
-        <v>7.68</v>
+        <v>5.41</v>
       </c>
       <c r="J9" t="n">
-        <v>5.41</v>
+        <v>1.73</v>
       </c>
       <c r="K9" t="n">
-        <v>1.73</v>
+        <v>10.05</v>
       </c>
       <c r="L9" t="n">
-        <v>10.05</v>
+        <v>6.04</v>
       </c>
       <c r="M9" t="n">
-        <v>6.04</v>
+        <v>2.18</v>
       </c>
       <c r="N9" t="n">
-        <v>2.18</v>
+        <v>0.35</v>
       </c>
       <c r="O9" t="n">
-        <v>0.35</v>
+        <v>0.97</v>
       </c>
       <c r="P9" t="n">
-        <v>0.97</v>
+        <v>4.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.5</v>
+        <v>0.12</v>
       </c>
       <c r="R9" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>98.84000000000002</v>
-      </c>
-      <c r="V9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>部位2</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>无风化</t>
         </is>
       </c>
     </row>
@@ -1193,43 +1164,41 @@
           <t>风化</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="F10" t="n">
+        <v>92.63</v>
       </c>
       <c r="G10" t="n">
-        <v>92.63</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J10" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="L10" t="n">
-        <v>1.98</v>
+        <v>0.17</v>
       </c>
       <c r="M10" t="n">
-        <v>0.17</v>
+        <v>3.24</v>
       </c>
       <c r="N10" t="n">
-        <v>3.24</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1237,13 +1206,12 @@
       <c r="S10" t="n">
         <v>0</v>
       </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>99.69999999999999</v>
-      </c>
-      <c r="V10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>风化</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1269,57 +1237,54 @@
           <t>风化</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="F11" t="n">
+        <v>20.14</v>
       </c>
       <c r="G11" t="n">
-        <v>20.14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="J11" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="L11" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>10.41</v>
       </c>
       <c r="N11" t="n">
-        <v>10.41</v>
+        <v>28.68</v>
       </c>
       <c r="O11" t="n">
-        <v>28.68</v>
+        <v>31.23</v>
       </c>
       <c r="P11" t="n">
-        <v>31.23</v>
+        <v>3.59</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.59</v>
+        <v>0.37</v>
       </c>
       <c r="R11" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
         <v>2.58</v>
       </c>
-      <c r="U11" t="n">
-        <v>99.82000000000001</v>
-      </c>
-      <c r="V11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>风化</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1345,59 +1310,56 @@
           <t>风化</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>08严重风化点</t>
-        </is>
+      <c r="F12" t="n">
+        <v>4.61</v>
       </c>
       <c r="G12" t="n">
-        <v>4.61</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="J12" t="n">
-        <v>3.19</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="L12" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="N12" t="n">
-        <v>3.14</v>
+        <v>32.45</v>
       </c>
       <c r="O12" t="n">
-        <v>32.45</v>
+        <v>30.62</v>
       </c>
       <c r="P12" t="n">
-        <v>30.62</v>
+        <v>7.56</v>
       </c>
       <c r="Q12" t="n">
-        <v>7.56</v>
+        <v>0.53</v>
       </c>
       <c r="R12" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
         <v>15.03</v>
       </c>
-      <c r="U12" t="n">
-        <v>98.24000000000001</v>
-      </c>
-      <c r="V12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>严重风化点</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>风化</t>
         </is>
       </c>
     </row>
@@ -1425,43 +1387,41 @@
           <t>风化</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="F13" t="n">
+        <v>95.02</v>
       </c>
       <c r="G13" t="n">
-        <v>95.02</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="I13" t="n">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
       <c r="J13" t="n">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="L13" t="n">
-        <v>1.32</v>
+        <v>0.32</v>
       </c>
       <c r="M13" t="n">
-        <v>0.32</v>
+        <v>1.55</v>
       </c>
       <c r="N13" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1469,13 +1429,12 @@
       <c r="S13" t="n">
         <v>0</v>
       </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>99.76999999999998</v>
-      </c>
-      <c r="V13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>风化</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1501,34 +1460,32 @@
           <t>风化</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="F14" t="n">
+        <v>96.77</v>
       </c>
       <c r="G14" t="n">
-        <v>96.77</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="I14" t="n">
-        <v>0.92</v>
+        <v>0.21</v>
       </c>
       <c r="J14" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L14" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="M14" t="n">
-        <v>0.26</v>
+        <v>0.84</v>
       </c>
       <c r="N14" t="n">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1545,13 +1502,12 @@
       <c r="S14" t="n">
         <v>0</v>
       </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>99.81</v>
-      </c>
-      <c r="V14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>风化</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1577,57 +1533,54 @@
           <t>风化</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="F15" t="n">
+        <v>33.59</v>
       </c>
       <c r="G15" t="n">
-        <v>33.59</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="I15" t="n">
-        <v>0.21</v>
+        <v>3.51</v>
       </c>
       <c r="J15" t="n">
-        <v>3.51</v>
+        <v>0.71</v>
       </c>
       <c r="K15" t="n">
-        <v>0.71</v>
+        <v>2.69</v>
       </c>
       <c r="L15" t="n">
-        <v>2.69</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>4.93</v>
       </c>
       <c r="N15" t="n">
-        <v>4.93</v>
+        <v>25.39</v>
       </c>
       <c r="O15" t="n">
-        <v>25.39</v>
+        <v>14.61</v>
       </c>
       <c r="P15" t="n">
-        <v>14.61</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.380000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="R15" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>95.39</v>
-      </c>
-      <c r="V15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>风化</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1653,43 +1606,41 @@
           <t>风化</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="F16" t="n">
+        <v>94.29000000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>94.29000000000001</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="I16" t="n">
-        <v>1.01</v>
+        <v>0.72</v>
       </c>
       <c r="J16" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="L16" t="n">
-        <v>1.46</v>
+        <v>0.29</v>
       </c>
       <c r="M16" t="n">
-        <v>0.29</v>
+        <v>1.65</v>
       </c>
       <c r="N16" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1697,13 +1648,12 @@
       <c r="S16" t="n">
         <v>0</v>
       </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>99.57000000000002</v>
-      </c>
-      <c r="V16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>风化</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1729,43 +1679,41 @@
           <t>无风化</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="F17" t="n">
+        <v>59.01</v>
       </c>
       <c r="G17" t="n">
-        <v>59.01</v>
+        <v>2.86</v>
       </c>
       <c r="H17" t="n">
-        <v>2.86</v>
+        <v>12.53</v>
       </c>
       <c r="I17" t="n">
-        <v>12.53</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J17" t="n">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>6.16</v>
       </c>
       <c r="L17" t="n">
-        <v>6.16</v>
+        <v>2.88</v>
       </c>
       <c r="M17" t="n">
-        <v>2.88</v>
+        <v>4.73</v>
       </c>
       <c r="N17" t="n">
-        <v>4.73</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1773,13 +1721,12 @@
       <c r="S17" t="n">
         <v>0</v>
       </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>98.13999999999999</v>
-      </c>
-      <c r="V17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>无风化</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1805,43 +1752,41 @@
           <t>无风化</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+      <c r="F18" t="n">
+        <v>62.47</v>
       </c>
       <c r="G18" t="n">
-        <v>62.47</v>
+        <v>3.38</v>
       </c>
       <c r="H18" t="n">
-        <v>3.38</v>
+        <v>12.28</v>
       </c>
       <c r="I18" t="n">
-        <v>12.28</v>
+        <v>8.23</v>
       </c>
       <c r="J18" t="n">
-        <v>8.23</v>
+        <v>0.66</v>
       </c>
       <c r="K18" t="n">
-        <v>0.66</v>
+        <v>9.23</v>
       </c>
       <c r="L18" t="n">
-        <v>9.23</v>
+        <v>0.5</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="N18" t="n">
-        <v>0.47</v>
+        <v>1.62</v>
       </c>
       <c r="O18" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -1849,13 +1794,12 @@
       <c r="S18" t="n">
         <v>0</v>
       </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>99</v>
-      </c>
-      <c r="V18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>无风化</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1881,57 +1825,54 @@
           <t>无风化</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
+      <c r="F19" t="n">
+        <v>65.18000000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>65.18000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="H19" t="n">
-        <v>2.1</v>
+        <v>14.52</v>
       </c>
       <c r="I19" t="n">
-        <v>14.52</v>
+        <v>8.27</v>
       </c>
       <c r="J19" t="n">
-        <v>8.27</v>
+        <v>0.52</v>
       </c>
       <c r="K19" t="n">
-        <v>0.52</v>
+        <v>6.18</v>
       </c>
       <c r="L19" t="n">
-        <v>6.18</v>
+        <v>0.42</v>
       </c>
       <c r="M19" t="n">
-        <v>0.42</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="O19" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="R19" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>98.40999999999998</v>
-      </c>
-      <c r="V19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>无风化</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1957,28 +1898,26 @@
           <t>无风化</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
+      <c r="F20" t="n">
+        <v>79.45999999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>79.45999999999999</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>9.42</v>
       </c>
       <c r="I20" t="n">
-        <v>9.42</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="K20" t="n">
-        <v>1.53</v>
+        <v>3.05</v>
       </c>
       <c r="L20" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -1990,24 +1929,23 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.36</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="R20" t="n">
-        <v>0.07000000000000001</v>
+        <v>2.36</v>
       </c>
       <c r="S20" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>97.24999999999999</v>
-      </c>
-      <c r="V20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>无风化</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2033,57 +1971,54 @@
           <t>风化</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
+      <c r="F21" t="n">
+        <v>29.64</v>
       </c>
       <c r="G21" t="n">
-        <v>29.64</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="J21" t="n">
-        <v>2.93</v>
+        <v>0.59</v>
       </c>
       <c r="K21" t="n">
-        <v>0.59</v>
+        <v>3.57</v>
       </c>
       <c r="L21" t="n">
-        <v>3.57</v>
+        <v>1.33</v>
       </c>
       <c r="M21" t="n">
-        <v>1.33</v>
+        <v>3.51</v>
       </c>
       <c r="N21" t="n">
-        <v>3.51</v>
+        <v>42.82</v>
       </c>
       <c r="O21" t="n">
-        <v>42.82</v>
+        <v>5.35</v>
       </c>
       <c r="P21" t="n">
-        <v>5.35</v>
+        <v>8.83</v>
       </c>
       <c r="Q21" t="n">
-        <v>8.83</v>
+        <v>0.19</v>
       </c>
       <c r="R21" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>98.75999999999999</v>
-      </c>
-      <c r="V21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>风化</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2109,43 +2044,41 @@
           <t>无风化</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="F22" t="n">
+        <v>37.36</v>
       </c>
       <c r="G22" t="n">
-        <v>37.36</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="I22" t="n">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>5.45</v>
       </c>
       <c r="L22" t="n">
-        <v>5.45</v>
+        <v>1.51</v>
       </c>
       <c r="M22" t="n">
-        <v>1.51</v>
+        <v>4.78</v>
       </c>
       <c r="N22" t="n">
-        <v>4.78</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="O22" t="n">
-        <v>9.300000000000001</v>
+        <v>23.55</v>
       </c>
       <c r="P22" t="n">
-        <v>23.55</v>
+        <v>5.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.75</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2153,13 +2086,12 @@
       <c r="S22" t="n">
         <v>0</v>
       </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>88.41</v>
-      </c>
-      <c r="V22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>无风化</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2185,43 +2117,41 @@
           <t>无风化</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
+      <c r="F23" t="n">
+        <v>76.68000000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>76.68000000000001</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>4.71</v>
       </c>
       <c r="J23" t="n">
-        <v>4.71</v>
+        <v>1.22</v>
       </c>
       <c r="K23" t="n">
-        <v>1.22</v>
+        <v>6.19</v>
       </c>
       <c r="L23" t="n">
-        <v>6.19</v>
+        <v>2.37</v>
       </c>
       <c r="M23" t="n">
-        <v>2.37</v>
+        <v>3.28</v>
       </c>
       <c r="N23" t="n">
-        <v>3.28</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>1.97</v>
       </c>
       <c r="P23" t="n">
-        <v>1.97</v>
+        <v>1.1</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2229,13 +2159,12 @@
       <c r="S23" t="n">
         <v>0</v>
       </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>98.52</v>
-      </c>
-      <c r="V23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>无风化</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2261,43 +2190,41 @@
           <t>风化</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="F24" t="n">
+        <v>92.34999999999999</v>
       </c>
       <c r="G24" t="n">
-        <v>92.34999999999999</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="I24" t="n">
-        <v>0.74</v>
+        <v>1.66</v>
       </c>
       <c r="J24" t="n">
-        <v>1.66</v>
+        <v>0.64</v>
       </c>
       <c r="K24" t="n">
-        <v>0.64</v>
+        <v>3.5</v>
       </c>
       <c r="L24" t="n">
-        <v>3.5</v>
+        <v>0.35</v>
       </c>
       <c r="M24" t="n">
-        <v>0.35</v>
+        <v>0.55</v>
       </c>
       <c r="N24" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2305,13 +2232,12 @@
       <c r="S24" t="n">
         <v>0</v>
       </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>99.99999999999997</v>
-      </c>
-      <c r="V24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>风化</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2337,59 +2263,56 @@
           <t>风化</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>23未风化点</t>
-        </is>
+      <c r="F25" t="n">
+        <v>53.79</v>
       </c>
       <c r="G25" t="n">
-        <v>53.79</v>
+        <v>7.92</v>
       </c>
       <c r="H25" t="n">
-        <v>7.92</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
       <c r="K25" t="n">
-        <v>0.71</v>
+        <v>1.42</v>
       </c>
       <c r="L25" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>2.99</v>
       </c>
       <c r="N25" t="n">
-        <v>2.99</v>
+        <v>16.98</v>
       </c>
       <c r="O25" t="n">
-        <v>16.98</v>
+        <v>11.86</v>
       </c>
       <c r="P25" t="n">
-        <v>11.86</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="R25" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="V25" t="inlineStr">
+      <c r="T25" t="inlineStr">
         <is>
           <t>未风化点</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>无风化</t>
         </is>
       </c>
     </row>
@@ -2417,57 +2340,54 @@
           <t>无风化</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
+      <c r="F26" t="n">
+        <v>31.94</v>
       </c>
       <c r="G26" t="n">
-        <v>31.94</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="J26" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="L26" t="n">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="N26" t="n">
-        <v>8.460000000000001</v>
+        <v>29.14</v>
       </c>
       <c r="O26" t="n">
-        <v>29.14</v>
+        <v>26.23</v>
       </c>
       <c r="P26" t="n">
-        <v>26.23</v>
+        <v>0.14</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.14</v>
+        <v>0.91</v>
       </c>
       <c r="R26" t="n">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>98.88000000000001</v>
-      </c>
-      <c r="V26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>无风化</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2493,59 +2413,56 @@
           <t>风化</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>25未风化点</t>
-        </is>
+      <c r="F27" t="n">
+        <v>50.61</v>
       </c>
       <c r="G27" t="n">
-        <v>50.61</v>
+        <v>2.31</v>
       </c>
       <c r="H27" t="n">
-        <v>2.31</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="J27" t="n">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="L27" t="n">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="M27" t="n">
-        <v>1.55</v>
+        <v>1.12</v>
       </c>
       <c r="N27" t="n">
-        <v>1.12</v>
+        <v>31.9</v>
       </c>
       <c r="O27" t="n">
-        <v>31.9</v>
+        <v>6.65</v>
       </c>
       <c r="P27" t="n">
-        <v>6.65</v>
+        <v>0.19</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="R27" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>97.06</v>
-      </c>
-      <c r="V27" t="inlineStr">
+      <c r="T27" t="inlineStr">
         <is>
           <t>未风化点</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>无风化</t>
         </is>
       </c>
     </row>
@@ -2573,57 +2490,54 @@
           <t>风化</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
+      <c r="F28" t="n">
+        <v>19.79</v>
       </c>
       <c r="G28" t="n">
-        <v>19.79</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="J28" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="L28" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>10.57</v>
       </c>
       <c r="N28" t="n">
-        <v>10.57</v>
+        <v>29.53</v>
       </c>
       <c r="O28" t="n">
-        <v>29.53</v>
+        <v>32.25</v>
       </c>
       <c r="P28" t="n">
-        <v>32.25</v>
+        <v>3.13</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.13</v>
+        <v>0.45</v>
       </c>
       <c r="R28" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
         <v>1.96</v>
       </c>
-      <c r="U28" t="n">
-        <v>99.81999999999999</v>
-      </c>
-      <c r="V28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>风化</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2649,59 +2563,56 @@
           <t>风化</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>26严重风化点</t>
-        </is>
+      <c r="F29" t="n">
+        <v>3.72</v>
       </c>
       <c r="G29" t="n">
-        <v>3.72</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4</v>
+        <v>3.01</v>
       </c>
       <c r="J29" t="n">
-        <v>3.01</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="L29" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="N29" t="n">
-        <v>3.6</v>
+        <v>29.92</v>
       </c>
       <c r="O29" t="n">
-        <v>29.92</v>
+        <v>35.45</v>
       </c>
       <c r="P29" t="n">
-        <v>35.45</v>
+        <v>6.04</v>
       </c>
       <c r="Q29" t="n">
-        <v>6.04</v>
+        <v>0.62</v>
       </c>
       <c r="R29" t="n">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
         <v>15.95</v>
       </c>
-      <c r="U29" t="n">
-        <v>99.89000000000001</v>
-      </c>
-      <c r="V29" t="inlineStr">
+      <c r="T29" t="inlineStr">
         <is>
           <t>严重风化点</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>风化</t>
         </is>
       </c>
     </row>
@@ -2729,43 +2640,41 @@
           <t>风化</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
+      <c r="F30" t="n">
+        <v>92.72</v>
       </c>
       <c r="G30" t="n">
-        <v>92.72</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J30" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="K30" t="n">
-        <v>0.54</v>
+        <v>2.51</v>
       </c>
       <c r="L30" t="n">
-        <v>2.51</v>
+        <v>0.2</v>
       </c>
       <c r="M30" t="n">
-        <v>0.2</v>
+        <v>1.54</v>
       </c>
       <c r="N30" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2773,13 +2682,12 @@
       <c r="S30" t="n">
         <v>0</v>
       </c>
-      <c r="T30" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" t="n">
-        <v>98.81000000000002</v>
-      </c>
-      <c r="V30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>风化</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2805,59 +2713,56 @@
           <t>风化</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>28未风化点</t>
-        </is>
+      <c r="F31" t="n">
+        <v>68.08</v>
       </c>
       <c r="G31" t="n">
-        <v>68.08</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="I31" t="n">
-        <v>0.26</v>
+        <v>1.34</v>
       </c>
       <c r="J31" t="n">
-        <v>1.34</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="L31" t="n">
-        <v>4.7</v>
+        <v>0.41</v>
       </c>
       <c r="M31" t="n">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
       <c r="N31" t="n">
-        <v>0.33</v>
+        <v>17.14</v>
       </c>
       <c r="O31" t="n">
-        <v>17.14</v>
+        <v>4.04</v>
       </c>
       <c r="P31" t="n">
-        <v>4.04</v>
+        <v>1.04</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.04</v>
+        <v>0.12</v>
       </c>
       <c r="R31" t="n">
-        <v>0.12</v>
+        <v>0.23</v>
       </c>
       <c r="S31" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>98.69000000000003</v>
-      </c>
-      <c r="V31" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="T31" t="inlineStr">
         <is>
           <t>未风化点</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>无风化</t>
         </is>
       </c>
     </row>
@@ -2885,59 +2790,56 @@
           <t>风化</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>29未风化点</t>
-        </is>
+      <c r="F32" t="n">
+        <v>63.3</v>
       </c>
       <c r="G32" t="n">
-        <v>63.3</v>
+        <v>0.92</v>
       </c>
       <c r="H32" t="n">
-        <v>0.92</v>
+        <v>0.3</v>
       </c>
       <c r="I32" t="n">
-        <v>0.3</v>
+        <v>2.98</v>
       </c>
       <c r="J32" t="n">
-        <v>2.98</v>
+        <v>1.49</v>
       </c>
       <c r="K32" t="n">
-        <v>1.49</v>
+        <v>14.34</v>
       </c>
       <c r="L32" t="n">
-        <v>14.34</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M32" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="N32" t="n">
-        <v>0.74</v>
+        <v>12.31</v>
       </c>
       <c r="O32" t="n">
-        <v>12.31</v>
+        <v>2.03</v>
       </c>
       <c r="P32" t="n">
-        <v>2.03</v>
+        <v>0.41</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.41</v>
+        <v>0.25</v>
       </c>
       <c r="R32" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>99.88</v>
-      </c>
-      <c r="V32" t="inlineStr">
+      <c r="T32" t="inlineStr">
         <is>
           <t>未风化点</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>无风化</t>
         </is>
       </c>
     </row>
@@ -2965,59 +2867,56 @@
           <t>无风化</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>30部位1</t>
-        </is>
+      <c r="F33" t="n">
+        <v>34.34</v>
       </c>
       <c r="G33" t="n">
-        <v>34.34</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="I33" t="n">
-        <v>1.41</v>
+        <v>4.49</v>
       </c>
       <c r="J33" t="n">
-        <v>4.49</v>
+        <v>0.98</v>
       </c>
       <c r="K33" t="n">
-        <v>0.98</v>
+        <v>4.35</v>
       </c>
       <c r="L33" t="n">
-        <v>4.35</v>
+        <v>2.12</v>
       </c>
       <c r="M33" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>39.22</v>
       </c>
       <c r="O33" t="n">
-        <v>39.22</v>
+        <v>10.29</v>
       </c>
       <c r="P33" t="n">
-        <v>10.29</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="R33" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="S33" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" t="n">
-        <v>97.94999999999999</v>
-      </c>
-      <c r="V33" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="T33" t="inlineStr">
         <is>
           <t>部位1</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>无风化</t>
         </is>
       </c>
     </row>
@@ -3045,59 +2944,56 @@
           <t>无风化</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>30部位2</t>
-        </is>
+      <c r="F34" t="n">
+        <v>36.93</v>
       </c>
       <c r="G34" t="n">
-        <v>36.93</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>4.24</v>
       </c>
       <c r="J34" t="n">
-        <v>4.24</v>
+        <v>0.51</v>
       </c>
       <c r="K34" t="n">
-        <v>0.51</v>
+        <v>3.86</v>
       </c>
       <c r="L34" t="n">
-        <v>3.86</v>
+        <v>2.74</v>
       </c>
       <c r="M34" t="n">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>37.74</v>
       </c>
       <c r="O34" t="n">
-        <v>37.74</v>
+        <v>10.35</v>
       </c>
       <c r="P34" t="n">
-        <v>10.35</v>
+        <v>1.41</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.41</v>
+        <v>0.48</v>
       </c>
       <c r="R34" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="S34" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="V34" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="T34" t="inlineStr">
         <is>
           <t>部位2</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>无风化</t>
         </is>
       </c>
     </row>
@@ -3125,57 +3021,54 @@
           <t>无风化</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
+      <c r="F35" t="n">
+        <v>65.91</v>
       </c>
       <c r="G35" t="n">
-        <v>65.91</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="J35" t="n">
-        <v>1.6</v>
+        <v>0.89</v>
       </c>
       <c r="K35" t="n">
-        <v>0.89</v>
+        <v>3.11</v>
       </c>
       <c r="L35" t="n">
-        <v>3.11</v>
+        <v>4.59</v>
       </c>
       <c r="M35" t="n">
-        <v>4.59</v>
+        <v>0.44</v>
       </c>
       <c r="N35" t="n">
-        <v>0.44</v>
+        <v>16.55</v>
       </c>
       <c r="O35" t="n">
-        <v>16.55</v>
+        <v>3.42</v>
       </c>
       <c r="P35" t="n">
-        <v>3.42</v>
+        <v>1.62</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.62</v>
+        <v>0.3</v>
       </c>
       <c r="R35" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>98.42999999999999</v>
-      </c>
-      <c r="V35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>无风化</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3201,43 +3094,41 @@
           <t>无风化</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="F36" t="n">
+        <v>69.70999999999999</v>
       </c>
       <c r="G36" t="n">
-        <v>69.70999999999999</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="I36" t="n">
-        <v>0.21</v>
+        <v>0.46</v>
       </c>
       <c r="J36" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="L36" t="n">
-        <v>2.36</v>
+        <v>1</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="N36" t="n">
-        <v>0.11</v>
+        <v>19.76</v>
       </c>
       <c r="O36" t="n">
-        <v>19.76</v>
+        <v>4.88</v>
       </c>
       <c r="P36" t="n">
-        <v>4.88</v>
+        <v>0.17</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3245,13 +3136,12 @@
       <c r="S36" t="n">
         <v>0</v>
       </c>
-      <c r="T36" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>98.65999999999998</v>
-      </c>
-      <c r="V36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>无风化</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3277,43 +3167,41 @@
           <t>无风化</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="F37" t="n">
+        <v>75.51000000000001</v>
       </c>
       <c r="G37" t="n">
-        <v>75.51000000000001</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I37" t="n">
-        <v>0.15</v>
+        <v>0.64</v>
       </c>
       <c r="J37" t="n">
-        <v>0.64</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>2.35</v>
       </c>
       <c r="L37" t="n">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="N37" t="n">
-        <v>0.47</v>
+        <v>16.16</v>
       </c>
       <c r="O37" t="n">
-        <v>16.16</v>
+        <v>3.55</v>
       </c>
       <c r="P37" t="n">
-        <v>3.55</v>
+        <v>0.13</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3321,13 +3209,12 @@
       <c r="S37" t="n">
         <v>0</v>
       </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>99.95999999999999</v>
-      </c>
-      <c r="V37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>无风化</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3353,57 +3240,54 @@
           <t>风化</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="F38" t="n">
+        <v>35.78</v>
       </c>
       <c r="G38" t="n">
-        <v>35.78</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I38" t="n">
-        <v>0.25</v>
+        <v>0.78</v>
       </c>
       <c r="J38" t="n">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="L38" t="n">
-        <v>1.62</v>
+        <v>0.47</v>
       </c>
       <c r="M38" t="n">
-        <v>0.47</v>
+        <v>1.51</v>
       </c>
       <c r="N38" t="n">
-        <v>1.51</v>
+        <v>46.55</v>
       </c>
       <c r="O38" t="n">
-        <v>46.55</v>
+        <v>10</v>
       </c>
       <c r="P38" t="n">
-        <v>10</v>
+        <v>0.34</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
       <c r="R38" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>97.52</v>
-      </c>
-      <c r="V38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>风化</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3429,43 +3313,41 @@
           <t>无风化</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="F39" t="n">
+        <v>65.91</v>
       </c>
       <c r="G39" t="n">
-        <v>65.91</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="J39" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="L39" t="n">
-        <v>1.44</v>
+        <v>0.17</v>
       </c>
       <c r="M39" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="N39" t="n">
-        <v>0.16</v>
+        <v>22.05</v>
       </c>
       <c r="O39" t="n">
-        <v>22.05</v>
+        <v>5.68</v>
       </c>
       <c r="P39" t="n">
-        <v>5.68</v>
+        <v>0.42</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3473,13 +3355,12 @@
       <c r="S39" t="n">
         <v>0</v>
       </c>
-      <c r="T39" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" t="n">
-        <v>96.20999999999999</v>
-      </c>
-      <c r="V39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>无风化</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3505,57 +3386,54 @@
           <t>风化</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="F40" t="n">
+        <v>39.57</v>
       </c>
       <c r="G40" t="n">
-        <v>39.57</v>
+        <v>2.22</v>
       </c>
       <c r="H40" t="n">
-        <v>2.22</v>
+        <v>0.14</v>
       </c>
       <c r="I40" t="n">
-        <v>0.14</v>
+        <v>0.37</v>
       </c>
       <c r="J40" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="L40" t="n">
-        <v>1.6</v>
+        <v>0.32</v>
       </c>
       <c r="M40" t="n">
-        <v>0.32</v>
+        <v>0.68</v>
       </c>
       <c r="N40" t="n">
-        <v>0.68</v>
+        <v>41.61</v>
       </c>
       <c r="O40" t="n">
-        <v>41.61</v>
+        <v>10.83</v>
       </c>
       <c r="P40" t="n">
-        <v>10.83</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="R40" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>97.62999999999998</v>
-      </c>
-      <c r="V40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>风化</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3581,57 +3459,54 @@
           <t>无风化</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="F41" t="n">
+        <v>60.12</v>
       </c>
       <c r="G41" t="n">
-        <v>60.12</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="I41" t="n">
-        <v>0.23</v>
+        <v>0.89</v>
       </c>
       <c r="J41" t="n">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="L41" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="N41" t="n">
-        <v>3.01</v>
+        <v>17.24</v>
       </c>
       <c r="O41" t="n">
-        <v>17.24</v>
+        <v>10.34</v>
       </c>
       <c r="P41" t="n">
-        <v>10.34</v>
+        <v>1.46</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.46</v>
+        <v>0.31</v>
       </c>
       <c r="R41" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
         <v>3.66</v>
       </c>
-      <c r="U41" t="n">
-        <v>99.97999999999999</v>
-      </c>
-      <c r="V41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>无风化</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3657,57 +3532,54 @@
           <t>风化</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="F42" t="n">
+        <v>32.93</v>
       </c>
       <c r="G42" t="n">
-        <v>32.93</v>
+        <v>1.38</v>
       </c>
       <c r="H42" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="J42" t="n">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="L42" t="n">
-        <v>2.57</v>
+        <v>0.29</v>
       </c>
       <c r="M42" t="n">
-        <v>0.29</v>
+        <v>0.73</v>
       </c>
       <c r="N42" t="n">
-        <v>0.73</v>
+        <v>49.31</v>
       </c>
       <c r="O42" t="n">
-        <v>49.31</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="P42" t="n">
-        <v>9.789999999999999</v>
+        <v>0.48</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.48</v>
+        <v>0.41</v>
       </c>
       <c r="R42" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
-      <c r="T42" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" t="n">
-        <v>98.57000000000001</v>
-      </c>
-      <c r="V42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>风化</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3733,57 +3605,54 @@
           <t>风化</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="F43" t="n">
+        <v>26.25</v>
       </c>
       <c r="G43" t="n">
-        <v>26.25</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="J43" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L43" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="N43" t="n">
-        <v>0.88</v>
+        <v>61.03</v>
       </c>
       <c r="O43" t="n">
-        <v>61.03</v>
+        <v>7.22</v>
       </c>
       <c r="P43" t="n">
-        <v>7.22</v>
+        <v>1.16</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.16</v>
+        <v>0.61</v>
       </c>
       <c r="R43" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>98.75999999999999</v>
-      </c>
-      <c r="V43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>风化</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3809,57 +3678,54 @@
           <t>风化</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="F44" t="n">
+        <v>16.71</v>
       </c>
       <c r="G44" t="n">
-        <v>16.71</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="J44" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="L44" t="n">
-        <v>0.45</v>
+        <v>0.19</v>
       </c>
       <c r="M44" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="O44" t="n">
-        <v>70.20999999999999</v>
+        <v>6.69</v>
       </c>
       <c r="P44" t="n">
-        <v>6.69</v>
+        <v>1.77</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.77</v>
+        <v>0.68</v>
       </c>
       <c r="R44" t="n">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>98.56999999999999</v>
-      </c>
-      <c r="V44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>风化</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3885,57 +3751,54 @@
           <t>风化</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
+      <c r="F45" t="n">
+        <v>18.46</v>
       </c>
       <c r="G45" t="n">
-        <v>18.46</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="I45" t="n">
-        <v>0.44</v>
+        <v>4.96</v>
       </c>
       <c r="J45" t="n">
-        <v>4.96</v>
+        <v>2.73</v>
       </c>
       <c r="K45" t="n">
-        <v>2.73</v>
+        <v>3.33</v>
       </c>
       <c r="L45" t="n">
-        <v>3.33</v>
+        <v>1.79</v>
       </c>
       <c r="M45" t="n">
-        <v>1.79</v>
+        <v>0.19</v>
       </c>
       <c r="N45" t="n">
-        <v>0.19</v>
+        <v>44.12</v>
       </c>
       <c r="O45" t="n">
-        <v>44.12</v>
+        <v>9.76</v>
       </c>
       <c r="P45" t="n">
-        <v>9.76</v>
+        <v>7.46</v>
       </c>
       <c r="Q45" t="n">
-        <v>7.46</v>
+        <v>0.47</v>
       </c>
       <c r="R45" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
-      <c r="T45" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" t="n">
-        <v>93.70999999999999</v>
-      </c>
-      <c r="V45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>风化</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3961,59 +3824,56 @@
           <t>风化</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>42未风化点1</t>
-        </is>
+      <c r="F46" t="n">
+        <v>51.26</v>
       </c>
       <c r="G46" t="n">
-        <v>51.26</v>
+        <v>5.74</v>
       </c>
       <c r="H46" t="n">
-        <v>5.74</v>
+        <v>0.15</v>
       </c>
       <c r="I46" t="n">
-        <v>0.15</v>
+        <v>0.79</v>
       </c>
       <c r="J46" t="n">
-        <v>0.79</v>
+        <v>1.09</v>
       </c>
       <c r="K46" t="n">
-        <v>1.09</v>
+        <v>3.53</v>
       </c>
       <c r="L46" t="n">
-        <v>3.53</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="N46" t="n">
-        <v>2.67</v>
+        <v>21.88</v>
       </c>
       <c r="O46" t="n">
-        <v>21.88</v>
+        <v>10.47</v>
       </c>
       <c r="P46" t="n">
-        <v>10.47</v>
+        <v>0.08</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.08</v>
+        <v>0.35</v>
       </c>
       <c r="R46" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>98.00999999999999</v>
-      </c>
-      <c r="V46" t="inlineStr">
+      <c r="T46" t="inlineStr">
         <is>
           <t>未风化点1</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>风化</t>
         </is>
       </c>
     </row>
@@ -4041,40 +3901,38 @@
           <t>风化</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>42未风化点2</t>
-        </is>
+      <c r="F47" t="n">
+        <v>51.33</v>
       </c>
       <c r="G47" t="n">
-        <v>51.33</v>
+        <v>5.68</v>
       </c>
       <c r="H47" t="n">
-        <v>5.68</v>
+        <v>0.35</v>
       </c>
       <c r="I47" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="K47" t="n">
-        <v>1.16</v>
+        <v>5.66</v>
       </c>
       <c r="L47" t="n">
-        <v>5.66</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="N47" t="n">
-        <v>2.72</v>
+        <v>20.12</v>
       </c>
       <c r="O47" t="n">
-        <v>20.12</v>
+        <v>10.88</v>
       </c>
       <c r="P47" t="n">
-        <v>10.88</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="n">
         <v>0</v>
@@ -4085,15 +3943,14 @@
       <c r="S47" t="n">
         <v>0</v>
       </c>
-      <c r="T47" t="n">
-        <v>0</v>
-      </c>
-      <c r="U47" t="n">
-        <v>97.89999999999999</v>
-      </c>
-      <c r="V47" t="inlineStr">
+      <c r="T47" t="inlineStr">
         <is>
           <t>未风化点2</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>风化</t>
         </is>
       </c>
     </row>
@@ -4121,59 +3978,56 @@
           <t>风化</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>43部位1</t>
-        </is>
+      <c r="F48" t="n">
+        <v>12.41</v>
       </c>
       <c r="G48" t="n">
-        <v>12.41</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>5.24</v>
       </c>
       <c r="J48" t="n">
-        <v>5.24</v>
+        <v>0.89</v>
       </c>
       <c r="K48" t="n">
-        <v>0.89</v>
+        <v>2.25</v>
       </c>
       <c r="L48" t="n">
-        <v>2.25</v>
+        <v>0.76</v>
       </c>
       <c r="M48" t="n">
-        <v>0.76</v>
+        <v>5.35</v>
       </c>
       <c r="N48" t="n">
-        <v>5.35</v>
+        <v>59.85</v>
       </c>
       <c r="O48" t="n">
-        <v>59.85</v>
+        <v>7.29</v>
       </c>
       <c r="P48" t="n">
-        <v>7.29</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="R48" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="S48" t="n">
         <v>0</v>
       </c>
-      <c r="T48" t="n">
-        <v>0</v>
-      </c>
-      <c r="U48" t="n">
-        <v>94.68000000000001</v>
-      </c>
-      <c r="V48" t="inlineStr">
+      <c r="T48" t="inlineStr">
         <is>
           <t>部位1</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>风化</t>
         </is>
       </c>
     </row>
@@ -4201,59 +4055,56 @@
           <t>风化</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>43部位2</t>
-        </is>
+      <c r="F49" t="n">
+        <v>21.7</v>
       </c>
       <c r="G49" t="n">
-        <v>21.7</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="J49" t="n">
-        <v>6.4</v>
+        <v>0.95</v>
       </c>
       <c r="K49" t="n">
-        <v>0.95</v>
+        <v>3.41</v>
       </c>
       <c r="L49" t="n">
-        <v>3.41</v>
+        <v>1.39</v>
       </c>
       <c r="M49" t="n">
-        <v>1.39</v>
+        <v>1.51</v>
       </c>
       <c r="N49" t="n">
-        <v>1.51</v>
+        <v>44.75</v>
       </c>
       <c r="O49" t="n">
-        <v>44.75</v>
+        <v>3.26</v>
       </c>
       <c r="P49" t="n">
-        <v>3.26</v>
+        <v>12.83</v>
       </c>
       <c r="Q49" t="n">
-        <v>12.83</v>
+        <v>0.47</v>
       </c>
       <c r="R49" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
       </c>
-      <c r="T49" t="n">
-        <v>0</v>
-      </c>
-      <c r="U49" t="n">
-        <v>96.67</v>
-      </c>
-      <c r="V49" t="inlineStr">
+      <c r="T49" t="inlineStr">
         <is>
           <t>部位2</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>风化</t>
         </is>
       </c>
     </row>
@@ -4281,59 +4132,56 @@
           <t>风化</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>44未风化点</t>
-        </is>
+      <c r="F50" t="n">
+        <v>60.74</v>
       </c>
       <c r="G50" t="n">
-        <v>60.74</v>
+        <v>3.06</v>
       </c>
       <c r="H50" t="n">
-        <v>3.06</v>
+        <v>0.2</v>
       </c>
       <c r="I50" t="n">
-        <v>0.2</v>
+        <v>2.14</v>
       </c>
       <c r="J50" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>12.69</v>
       </c>
       <c r="L50" t="n">
-        <v>12.69</v>
+        <v>0.77</v>
       </c>
       <c r="M50" t="n">
-        <v>0.77</v>
+        <v>0.43</v>
       </c>
       <c r="N50" t="n">
-        <v>0.43</v>
+        <v>13.61</v>
       </c>
       <c r="O50" t="n">
-        <v>13.61</v>
+        <v>5.22</v>
       </c>
       <c r="P50" t="n">
-        <v>5.22</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="R50" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="S50" t="n">
         <v>0</v>
       </c>
-      <c r="T50" t="n">
-        <v>0</v>
-      </c>
-      <c r="U50" t="n">
-        <v>99.12</v>
-      </c>
-      <c r="V50" t="inlineStr">
+      <c r="T50" t="inlineStr">
         <is>
           <t>未风化点</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>无风化</t>
         </is>
       </c>
     </row>
@@ -4361,57 +4209,54 @@
           <t>无风化</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
+      <c r="F51" t="n">
+        <v>61.28</v>
       </c>
       <c r="G51" t="n">
-        <v>61.28</v>
+        <v>2.66</v>
       </c>
       <c r="H51" t="n">
-        <v>2.66</v>
+        <v>0.11</v>
       </c>
       <c r="I51" t="n">
-        <v>0.11</v>
+        <v>0.84</v>
       </c>
       <c r="J51" t="n">
-        <v>0.84</v>
+        <v>0.74</v>
       </c>
       <c r="K51" t="n">
-        <v>0.74</v>
+        <v>5</v>
       </c>
       <c r="L51" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="N51" t="n">
-        <v>0.53</v>
+        <v>15.99</v>
       </c>
       <c r="O51" t="n">
-        <v>15.99</v>
+        <v>10.96</v>
       </c>
       <c r="P51" t="n">
-        <v>10.96</v>
+        <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="R51" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="S51" t="n">
         <v>0</v>
       </c>
-      <c r="T51" t="n">
-        <v>0</v>
-      </c>
-      <c r="U51" t="n">
-        <v>98.33999999999999</v>
-      </c>
-      <c r="V51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>无风化</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4437,57 +4282,54 @@
           <t>无风化</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
+      <c r="F52" t="n">
+        <v>55.21</v>
       </c>
       <c r="G52" t="n">
-        <v>55.21</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I52" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="K52" t="n">
-        <v>1.67</v>
+        <v>4.79</v>
       </c>
       <c r="L52" t="n">
-        <v>4.79</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="N52" t="n">
-        <v>0.77</v>
+        <v>25.25</v>
       </c>
       <c r="O52" t="n">
-        <v>25.25</v>
+        <v>10.06</v>
       </c>
       <c r="P52" t="n">
-        <v>10.06</v>
+        <v>0.2</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.2</v>
+        <v>0.43</v>
       </c>
       <c r="R52" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="S52" t="n">
         <v>0</v>
       </c>
-      <c r="T52" t="n">
-        <v>0</v>
-      </c>
-      <c r="U52" t="n">
-        <v>98.63000000000001</v>
-      </c>
-      <c r="V52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>无风化</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4513,57 +4355,54 @@
           <t>无风化</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
+      <c r="F53" t="n">
+        <v>51.54</v>
       </c>
       <c r="G53" t="n">
-        <v>51.54</v>
+        <v>4.66</v>
       </c>
       <c r="H53" t="n">
-        <v>4.66</v>
+        <v>0.29</v>
       </c>
       <c r="I53" t="n">
-        <v>0.29</v>
+        <v>0.87</v>
       </c>
       <c r="J53" t="n">
-        <v>0.87</v>
+        <v>0.61</v>
       </c>
       <c r="K53" t="n">
-        <v>0.61</v>
+        <v>3.06</v>
       </c>
       <c r="L53" t="n">
-        <v>3.06</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="N53" t="n">
-        <v>0.65</v>
+        <v>25.4</v>
       </c>
       <c r="O53" t="n">
-        <v>25.4</v>
+        <v>9.23</v>
       </c>
       <c r="P53" t="n">
-        <v>9.23</v>
+        <v>0.1</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.1</v>
+        <v>0.85</v>
       </c>
       <c r="R53" t="n">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
       </c>
-      <c r="T53" t="n">
-        <v>0</v>
-      </c>
-      <c r="U53" t="n">
-        <v>97.25999999999999</v>
-      </c>
-      <c r="V53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>无风化</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4589,57 +4428,54 @@
           <t>风化</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
+      <c r="F54" t="n">
+        <v>53.33</v>
       </c>
       <c r="G54" t="n">
-        <v>53.33</v>
+        <v>0.8</v>
       </c>
       <c r="H54" t="n">
-        <v>0.8</v>
+        <v>0.32</v>
       </c>
       <c r="I54" t="n">
-        <v>0.32</v>
+        <v>2.82</v>
       </c>
       <c r="J54" t="n">
-        <v>2.82</v>
+        <v>1.54</v>
       </c>
       <c r="K54" t="n">
-        <v>1.54</v>
+        <v>13.65</v>
       </c>
       <c r="L54" t="n">
-        <v>13.65</v>
+        <v>1.03</v>
       </c>
       <c r="M54" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>15.71</v>
       </c>
       <c r="O54" t="n">
-        <v>15.71</v>
+        <v>7.31</v>
       </c>
       <c r="P54" t="n">
-        <v>7.31</v>
+        <v>1.1</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.1</v>
+        <v>0.25</v>
       </c>
       <c r="R54" t="n">
-        <v>0.25</v>
+        <v>1.31</v>
       </c>
       <c r="S54" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="T54" t="n">
-        <v>0</v>
-      </c>
-      <c r="U54" t="n">
-        <v>99.16999999999999</v>
-      </c>
-      <c r="V54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>风化</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4665,57 +4501,54 @@
           <t>风化</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
+      <c r="F55" t="n">
+        <v>28.79</v>
       </c>
       <c r="G55" t="n">
-        <v>28.79</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>4.58</v>
       </c>
       <c r="J55" t="n">
-        <v>4.58</v>
+        <v>1.47</v>
       </c>
       <c r="K55" t="n">
-        <v>1.47</v>
+        <v>5.38</v>
       </c>
       <c r="L55" t="n">
-        <v>5.38</v>
+        <v>2.74</v>
       </c>
       <c r="M55" t="n">
-        <v>2.74</v>
+        <v>0.7</v>
       </c>
       <c r="N55" t="n">
-        <v>0.7</v>
+        <v>34.18</v>
       </c>
       <c r="O55" t="n">
-        <v>34.18</v>
+        <v>6.1</v>
       </c>
       <c r="P55" t="n">
-        <v>6.1</v>
+        <v>11.1</v>
       </c>
       <c r="Q55" t="n">
-        <v>11.1</v>
+        <v>0.46</v>
       </c>
       <c r="R55" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
       </c>
-      <c r="T55" t="n">
-        <v>0</v>
-      </c>
-      <c r="U55" t="n">
-        <v>95.49999999999999</v>
-      </c>
-      <c r="V55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>风化</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4741,59 +4574,56 @@
           <t>风化</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>49未风化点</t>
-        </is>
+      <c r="F56" t="n">
+        <v>54.61</v>
       </c>
       <c r="G56" t="n">
-        <v>54.61</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I56" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K56" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="N56" t="n">
+        <v>23.02</v>
+      </c>
+      <c r="O56" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="Q56" t="n">
         <v>0.3</v>
       </c>
-      <c r="J56" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="K56" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="L56" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="N56" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="O56" t="n">
-        <v>23.02</v>
-      </c>
-      <c r="P56" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>4.32</v>
-      </c>
       <c r="R56" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="S56" t="n">
         <v>0</v>
       </c>
-      <c r="T56" t="n">
-        <v>0</v>
-      </c>
-      <c r="U56" t="n">
-        <v>98.23999999999999</v>
-      </c>
-      <c r="V56" t="inlineStr">
+      <c r="T56" t="inlineStr">
         <is>
           <t>未风化点</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>无风化</t>
         </is>
       </c>
     </row>
@@ -4821,57 +4651,54 @@
           <t>风化</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
+      <c r="F57" t="n">
+        <v>17.98</v>
       </c>
       <c r="G57" t="n">
-        <v>17.98</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="J57" t="n">
-        <v>3.19</v>
+        <v>0.47</v>
       </c>
       <c r="K57" t="n">
-        <v>0.47</v>
+        <v>1.87</v>
       </c>
       <c r="L57" t="n">
-        <v>1.87</v>
+        <v>0.33</v>
       </c>
       <c r="M57" t="n">
-        <v>0.33</v>
+        <v>1.13</v>
       </c>
       <c r="N57" t="n">
-        <v>1.13</v>
+        <v>44</v>
       </c>
       <c r="O57" t="n">
-        <v>44</v>
+        <v>14.2</v>
       </c>
       <c r="P57" t="n">
-        <v>14.2</v>
+        <v>6.34</v>
       </c>
       <c r="Q57" t="n">
-        <v>6.34</v>
+        <v>0.66</v>
       </c>
       <c r="R57" t="n">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="S57" t="n">
         <v>0</v>
       </c>
-      <c r="T57" t="n">
-        <v>0</v>
-      </c>
-      <c r="U57" t="n">
-        <v>90.17</v>
-      </c>
-      <c r="V57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>风化</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4897,59 +4724,56 @@
           <t>风化</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>50未风化点</t>
-        </is>
+      <c r="F58" t="n">
+        <v>45.02</v>
       </c>
       <c r="G58" t="n">
-        <v>45.02</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>3.12</v>
       </c>
       <c r="J58" t="n">
-        <v>3.12</v>
+        <v>0.54</v>
       </c>
       <c r="K58" t="n">
-        <v>0.54</v>
+        <v>4.16</v>
       </c>
       <c r="L58" t="n">
-        <v>4.16</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="N58" t="n">
-        <v>0.7</v>
+        <v>30.61</v>
       </c>
       <c r="O58" t="n">
-        <v>30.61</v>
+        <v>6.22</v>
       </c>
       <c r="P58" t="n">
-        <v>6.22</v>
+        <v>6.34</v>
       </c>
       <c r="Q58" t="n">
-        <v>6.34</v>
+        <v>0.23</v>
       </c>
       <c r="R58" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
       </c>
-      <c r="T58" t="n">
-        <v>0</v>
-      </c>
-      <c r="U58" t="n">
-        <v>96.94000000000001</v>
-      </c>
-      <c r="V58" t="inlineStr">
+      <c r="T58" t="inlineStr">
         <is>
           <t>未风化点</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>无风化</t>
         </is>
       </c>
     </row>
@@ -4977,59 +4801,56 @@
           <t>风化</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>51部位1</t>
-        </is>
+      <c r="F59" t="n">
+        <v>24.61</v>
       </c>
       <c r="G59" t="n">
-        <v>24.61</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>3.58</v>
       </c>
       <c r="J59" t="n">
-        <v>3.58</v>
+        <v>1.19</v>
       </c>
       <c r="K59" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="L59" t="n">
         <v>1.19</v>
       </c>
-      <c r="L59" t="n">
-        <v>5.25</v>
-      </c>
       <c r="M59" t="n">
-        <v>1.19</v>
+        <v>1.37</v>
       </c>
       <c r="N59" t="n">
-        <v>1.37</v>
+        <v>40.24</v>
       </c>
       <c r="O59" t="n">
-        <v>40.24</v>
+        <v>8.94</v>
       </c>
       <c r="P59" t="n">
-        <v>8.94</v>
+        <v>8.1</v>
       </c>
       <c r="Q59" t="n">
-        <v>8.1</v>
+        <v>0.39</v>
       </c>
       <c r="R59" t="n">
-        <v>0.39</v>
+        <v>0.47</v>
       </c>
       <c r="S59" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="T59" t="n">
-        <v>0</v>
-      </c>
-      <c r="U59" t="n">
-        <v>95.32999999999998</v>
-      </c>
-      <c r="V59" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="T59" t="inlineStr">
         <is>
           <t>部位1</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>风化</t>
         </is>
       </c>
     </row>
@@ -5057,43 +4878,41 @@
           <t>风化</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>51部位2</t>
-        </is>
+      <c r="F60" t="n">
+        <v>21.35</v>
       </c>
       <c r="G60" t="n">
-        <v>21.35</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="J60" t="n">
-        <v>5.13</v>
+        <v>1.45</v>
       </c>
       <c r="K60" t="n">
-        <v>1.45</v>
+        <v>2.51</v>
       </c>
       <c r="L60" t="n">
-        <v>2.51</v>
+        <v>0.42</v>
       </c>
       <c r="M60" t="n">
-        <v>0.42</v>
+        <v>0.75</v>
       </c>
       <c r="N60" t="n">
-        <v>0.75</v>
+        <v>51.34</v>
       </c>
       <c r="O60" t="n">
-        <v>51.34</v>
+        <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="Q60" t="n">
-        <v>8.75</v>
+        <v>0</v>
       </c>
       <c r="R60" t="n">
         <v>0</v>
@@ -5101,15 +4920,14 @@
       <c r="S60" t="n">
         <v>0</v>
       </c>
-      <c r="T60" t="n">
-        <v>0</v>
-      </c>
-      <c r="U60" t="n">
-        <v>91.7</v>
-      </c>
-      <c r="V60" t="inlineStr">
+      <c r="T60" t="inlineStr">
         <is>
           <t>部位2</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>风化</t>
         </is>
       </c>
     </row>
@@ -5137,57 +4955,54 @@
           <t>风化</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
+      <c r="F61" t="n">
+        <v>25.74</v>
       </c>
       <c r="G61" t="n">
-        <v>25.74</v>
+        <v>1.22</v>
       </c>
       <c r="H61" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="J61" t="n">
-        <v>2.27</v>
+        <v>0.55</v>
       </c>
       <c r="K61" t="n">
-        <v>0.55</v>
+        <v>1.16</v>
       </c>
       <c r="L61" t="n">
-        <v>1.16</v>
+        <v>0.23</v>
       </c>
       <c r="M61" t="n">
-        <v>0.23</v>
+        <v>0.7</v>
       </c>
       <c r="N61" t="n">
-        <v>0.7</v>
+        <v>47.42</v>
       </c>
       <c r="O61" t="n">
-        <v>47.42</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="P61" t="n">
-        <v>8.640000000000001</v>
+        <v>5.71</v>
       </c>
       <c r="Q61" t="n">
-        <v>5.71</v>
+        <v>0.44</v>
       </c>
       <c r="R61" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="S61" t="n">
         <v>0</v>
       </c>
-      <c r="T61" t="n">
-        <v>0</v>
-      </c>
-      <c r="U61" t="n">
-        <v>94.07999999999998</v>
-      </c>
-      <c r="V61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>风化</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5213,59 +5028,56 @@
           <t>风化</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>53未风化点</t>
-        </is>
+      <c r="F62" t="n">
+        <v>63.66</v>
       </c>
       <c r="G62" t="n">
-        <v>63.66</v>
+        <v>3.04</v>
       </c>
       <c r="H62" t="n">
-        <v>3.04</v>
+        <v>0.11</v>
       </c>
       <c r="I62" t="n">
-        <v>0.11</v>
+        <v>0.78</v>
       </c>
       <c r="J62" t="n">
-        <v>0.78</v>
+        <v>1.14</v>
       </c>
       <c r="K62" t="n">
-        <v>1.14</v>
+        <v>6.06</v>
       </c>
       <c r="L62" t="n">
-        <v>6.06</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="N62" t="n">
-        <v>0.54</v>
+        <v>13.66</v>
       </c>
       <c r="O62" t="n">
-        <v>13.66</v>
+        <v>8.99</v>
       </c>
       <c r="P62" t="n">
-        <v>8.99</v>
+        <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="R62" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="S62" t="n">
         <v>0</v>
       </c>
-      <c r="T62" t="n">
-        <v>0</v>
-      </c>
-      <c r="U62" t="n">
-        <v>98.25</v>
-      </c>
-      <c r="V62" t="inlineStr">
+      <c r="T62" t="inlineStr">
         <is>
           <t>未风化点</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>无风化</t>
         </is>
       </c>
     </row>
@@ -5293,57 +5105,54 @@
           <t>风化</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
+      <c r="F63" t="n">
+        <v>22.28</v>
       </c>
       <c r="G63" t="n">
-        <v>22.28</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="I63" t="n">
-        <v>0.32</v>
+        <v>3.19</v>
       </c>
       <c r="J63" t="n">
-        <v>3.19</v>
+        <v>1.28</v>
       </c>
       <c r="K63" t="n">
-        <v>1.28</v>
+        <v>4.15</v>
       </c>
       <c r="L63" t="n">
-        <v>4.15</v>
+        <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="N63" t="n">
-        <v>0.83</v>
+        <v>55.46</v>
       </c>
       <c r="O63" t="n">
-        <v>55.46</v>
+        <v>7.04</v>
       </c>
       <c r="P63" t="n">
-        <v>7.04</v>
+        <v>4.24</v>
       </c>
       <c r="Q63" t="n">
-        <v>4.24</v>
+        <v>0.88</v>
       </c>
       <c r="R63" t="n">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="S63" t="n">
         <v>0</v>
       </c>
-      <c r="T63" t="n">
-        <v>0</v>
-      </c>
-      <c r="U63" t="n">
-        <v>99.67</v>
-      </c>
-      <c r="V63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>风化</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5369,13 +5178,11 @@
           <t>风化</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>54严重风化点</t>
-        </is>
+      <c r="F64" t="n">
+        <v>17.11</v>
       </c>
       <c r="G64" t="n">
-        <v>17.11</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5384,44 +5191,43 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="K64" t="n">
-        <v>1.11</v>
+        <v>3.65</v>
       </c>
       <c r="L64" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="N64" t="n">
-        <v>1.34</v>
+        <v>58.46</v>
       </c>
       <c r="O64" t="n">
-        <v>58.46</v>
+        <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>0</v>
+        <v>14.13</v>
       </c>
       <c r="Q64" t="n">
-        <v>14.13</v>
+        <v>1.12</v>
       </c>
       <c r="R64" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="S64" t="n">
         <v>0</v>
       </c>
-      <c r="T64" t="n">
-        <v>0</v>
-      </c>
-      <c r="U64" t="n">
-        <v>96.92</v>
-      </c>
-      <c r="V64" t="inlineStr">
+      <c r="T64" t="inlineStr">
         <is>
           <t>严重风化点</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>风化</t>
         </is>
       </c>
     </row>
@@ -5449,43 +5255,41 @@
           <t>无风化</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
+      <c r="F65" t="n">
+        <v>49.01</v>
       </c>
       <c r="G65" t="n">
-        <v>49.01</v>
+        <v>2.71</v>
       </c>
       <c r="H65" t="n">
-        <v>2.71</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="J65" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="L65" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="N65" t="n">
-        <v>0.86</v>
+        <v>32.92</v>
       </c>
       <c r="O65" t="n">
-        <v>32.92</v>
+        <v>7.95</v>
       </c>
       <c r="P65" t="n">
-        <v>7.95</v>
+        <v>0.35</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
@@ -5493,13 +5297,12 @@
       <c r="S65" t="n">
         <v>0</v>
       </c>
-      <c r="T65" t="n">
-        <v>0</v>
-      </c>
-      <c r="U65" t="n">
-        <v>96.38000000000001</v>
-      </c>
-      <c r="V65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>无风化</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5525,43 +5328,41 @@
           <t>风化</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
+      <c r="F66" t="n">
+        <v>29.15</v>
       </c>
       <c r="G66" t="n">
-        <v>29.15</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="J66" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="L66" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="N66" t="n">
-        <v>0.79</v>
+        <v>41.25</v>
       </c>
       <c r="O66" t="n">
-        <v>41.25</v>
+        <v>15.45</v>
       </c>
       <c r="P66" t="n">
-        <v>15.45</v>
+        <v>2.54</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="R66" t="n">
         <v>0</v>
@@ -5569,13 +5370,12 @@
       <c r="S66" t="n">
         <v>0</v>
       </c>
-      <c r="T66" t="n">
-        <v>0</v>
-      </c>
-      <c r="U66" t="n">
-        <v>92.24000000000001</v>
-      </c>
-      <c r="V66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>风化</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5601,40 +5401,38 @@
           <t>风化</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
+      <c r="F67" t="n">
+        <v>25.42</v>
       </c>
       <c r="G67" t="n">
-        <v>25.42</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="J67" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="L67" t="n">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="N67" t="n">
-        <v>1.16</v>
+        <v>45.1</v>
       </c>
       <c r="O67" t="n">
-        <v>45.1</v>
+        <v>17.3</v>
       </c>
       <c r="P67" t="n">
-        <v>17.3</v>
+        <v>0</v>
       </c>
       <c r="Q67" t="n">
         <v>0</v>
@@ -5645,13 +5443,12 @@
       <c r="S67" t="n">
         <v>0</v>
       </c>
-      <c r="T67" t="n">
-        <v>0</v>
-      </c>
-      <c r="U67" t="n">
-        <v>92.47</v>
-      </c>
-      <c r="V67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>风化</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -5677,57 +5474,54 @@
           <t>风化</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
+      <c r="F68" t="n">
+        <v>30.39</v>
       </c>
       <c r="G68" t="n">
-        <v>30.39</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="I68" t="n">
-        <v>0.34</v>
+        <v>3.49</v>
       </c>
       <c r="J68" t="n">
-        <v>3.49</v>
+        <v>0.79</v>
       </c>
       <c r="K68" t="n">
-        <v>0.79</v>
+        <v>3.52</v>
       </c>
       <c r="L68" t="n">
-        <v>3.52</v>
+        <v>0.86</v>
       </c>
       <c r="M68" t="n">
-        <v>0.86</v>
+        <v>3.13</v>
       </c>
       <c r="N68" t="n">
-        <v>3.13</v>
+        <v>39.35</v>
       </c>
       <c r="O68" t="n">
-        <v>39.35</v>
+        <v>7.66</v>
       </c>
       <c r="P68" t="n">
-        <v>7.66</v>
+        <v>8.99</v>
       </c>
       <c r="Q68" t="n">
-        <v>8.99</v>
+        <v>0.24</v>
       </c>
       <c r="R68" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="S68" t="n">
         <v>0</v>
       </c>
-      <c r="T68" t="n">
-        <v>0</v>
-      </c>
-      <c r="U68" t="n">
-        <v>98.75999999999999</v>
-      </c>
-      <c r="V68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>风化</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/中间数据集/表1与表2拼接后的数据集.xlsx
+++ b/中间数据集/表1与表2拼接后的数据集.xlsx
@@ -1963,7 +1963,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>黑色</t>
+          <t>浅蓝</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>黑色</t>
+          <t>浅蓝</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -4420,7 +4420,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>黑色</t>
+          <t>浅蓝</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -5466,7 +5466,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>黑色</t>
+          <t>浅蓝</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
